--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hsato/OpenProjects/duckdb/duckdb-echart-example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hsato/OpenProjects/duckdb/duckdb-echart-example/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3AFD138-3672-E242-91B0-74D54ADDF0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CE60D8-F1D8-A34C-A01D-C3DDDAAF9D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8960" yWindow="620" windowWidth="10880" windowHeight="8540" xr2:uid="{05544316-88EF-3F47-AA1F-41370D1FC70A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -439,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BDB1B4-D68E-E14B-8965-A534F0BE02A2}">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -479,6 +487,22 @@
         <v>36</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
